--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_1_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_1_bus_resonant.xlsx
@@ -755,13 +755,13 @@
         <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.890926093052382</v>
+        <v>0.8909260930523811</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033978</v>
+        <v>25.18850204033977</v>
       </c>
       <c r="R2">
         <v>-89.28600430314906</v>
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248872</v>
+        <v>4.759944874248895</v>
       </c>
       <c r="D3">
-        <v>4.759944874248872</v>
+        <v>4.759944874248895</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950732</v>
+        <v>54.96310908950758</v>
       </c>
       <c r="G3">
-        <v>54.96310908950732</v>
+        <v>54.96310908950758</v>
       </c>
       <c r="H3">
-        <v>2.132971006500099E-06</v>
+        <v>5.848132818634934</v>
       </c>
       <c r="I3">
-        <v>0.468305373701725</v>
+        <v>-775.4127313908978</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064004</v>
+        <v>0.1077319054464883</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694707947</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131844</v>
+        <v>0.1077319054081953</v>
       </c>
       <c r="M3">
-        <v>2.308438694642892</v>
+        <v>2.308438694652461</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020826</v>
+        <v>0.9526279648020818</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.95262796480252</v>
+        <v>0.9526279648025194</v>
       </c>
       <c r="Q3">
-        <v>-4.063775629709184E-12</v>
+        <v>-4.175278192772507E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.99999999999</v>
+        <v>-179.9999999999898</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753112</v>
+        <v>0.9526279647753105</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292915</v>
+        <v>0.9526279648292909</v>
       </c>
       <c r="Q4">
-        <v>1.415044592031669E-09</v>
+        <v>1.414938455749707E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985763</v>
+        <v>179.9999999985765</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663872</v>
+        <v>0.9526279647663868</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382153</v>
+        <v>0.9526279648382148</v>
       </c>
       <c r="Q5">
-        <v>1.888075960424472E-09</v>
+        <v>1.887969944036335E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663872</v>
+        <v>0.9526279647663868</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382153</v>
+        <v>0.9526279648382148</v>
       </c>
       <c r="Q6">
-        <v>1.888085518975507E-09</v>
+        <v>1.887965758623757E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1131,7 @@
         <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249694</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1145,46 +1145,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753576</v>
+        <v>2.010953897753581</v>
       </c>
       <c r="D3">
-        <v>2.010953897753576</v>
+        <v>2.010953897753581</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391909</v>
+        <v>23.22049548391914</v>
       </c>
       <c r="G3">
-        <v>23.22049548391909</v>
+        <v>23.22049548391914</v>
       </c>
       <c r="H3">
-        <v>2.132971006500099E-06</v>
+        <v>5.848132818634934</v>
       </c>
       <c r="I3">
-        <v>0.468305373701725</v>
+        <v>-775.4127313908978</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064004</v>
+        <v>0.1077319054464883</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694707947</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131844</v>
+        <v>0.1077319054081953</v>
       </c>
       <c r="M3">
-        <v>2.308438694642892</v>
+        <v>2.308438694652461</v>
       </c>
       <c r="N3">
         <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765315</v>
+        <v>0.7109795688765312</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381406</v>
+        <v>0.9171656569381398</v>
       </c>
       <c r="Q3">
         <v>17.92198046293675</v>
@@ -1243,13 +1243,13 @@
         <v>0.7109795688760384</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531278</v>
+        <v>0.9171656569531269</v>
       </c>
       <c r="Q4">
         <v>17.92198046336738</v>
       </c>
       <c r="R4">
-        <v>-106.527958690445</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1302,13 +1302,13 @@
         <v>0.7109795688758741</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581236</v>
+        <v>0.9171656569581228</v>
       </c>
       <c r="Q5">
         <v>17.92198046351092</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S5">
         <v>158.1868465770935</v>
@@ -1361,13 +1361,13 @@
         <v>0.7109795688758741</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581236</v>
+        <v>0.9171656569581228</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351092</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S6">
         <v>158.1868465770935</v>
@@ -1498,7 +1498,7 @@
         <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249694</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1512,46 +1512,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753576</v>
+        <v>2.010953897753581</v>
       </c>
       <c r="D3">
-        <v>2.010953897753576</v>
+        <v>2.010953897753581</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391909</v>
+        <v>23.22049548391914</v>
       </c>
       <c r="G3">
-        <v>23.22049548391909</v>
+        <v>23.22049548391914</v>
       </c>
       <c r="H3">
-        <v>2.132971006500099E-06</v>
+        <v>5.848132818634934</v>
       </c>
       <c r="I3">
-        <v>0.468305373701725</v>
+        <v>-775.4127313908978</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064004</v>
+        <v>0.1077319054464883</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694707947</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131844</v>
+        <v>0.1077319054081953</v>
       </c>
       <c r="M3">
-        <v>2.308438694642892</v>
+        <v>2.308438694652461</v>
       </c>
       <c r="N3">
         <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765315</v>
+        <v>0.7109795688765312</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381406</v>
+        <v>0.9171656569381398</v>
       </c>
       <c r="Q3">
         <v>17.92198046293675</v>
@@ -1610,13 +1610,13 @@
         <v>0.7109795688760384</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531278</v>
+        <v>0.9171656569531269</v>
       </c>
       <c r="Q4">
         <v>17.92198046336738</v>
       </c>
       <c r="R4">
-        <v>-106.527958690445</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1669,13 +1669,13 @@
         <v>0.7109795688758741</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581236</v>
+        <v>0.9171656569581228</v>
       </c>
       <c r="Q5">
         <v>17.92198046351092</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S5">
         <v>158.1868465770935</v>
@@ -1728,13 +1728,13 @@
         <v>0.7109795688758741</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581236</v>
+        <v>0.9171656569581228</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351092</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S6">
         <v>158.1868465770935</v>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952266</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739465</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888188</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610128</v>
+        <v>24.75158797610124</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897119</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043593</v>
+        <v>155.5173957043594</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661915</v>
+        <v>4.133684588661943</v>
       </c>
       <c r="D3">
-        <v>4.133684588661915</v>
+        <v>4.133684588661943</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017929</v>
+        <v>47.73167820017961</v>
       </c>
       <c r="G3">
-        <v>47.73167820017929</v>
+        <v>47.73167820017961</v>
       </c>
       <c r="H3">
-        <v>4.308979418443009E-06</v>
+        <v>11.22828457285203</v>
       </c>
       <c r="I3">
-        <v>0.480396224314769</v>
+        <v>-775.3959920540946</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595239116</v>
       </c>
       <c r="K3">
-        <v>2.416397540698421</v>
+        <v>2.416397540774764</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710815</v>
+        <v>0.1153518594661261</v>
       </c>
       <c r="M3">
-        <v>2.416397540675754</v>
+        <v>2.416397540685221</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841227</v>
+        <v>0.8660254037841225</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841827</v>
+        <v>0.8660254037841819</v>
       </c>
       <c r="Q3">
-        <v>3.075596723398049E-11</v>
+        <v>3.055630245340674E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999608</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597852</v>
+        <v>0.8660254037597853</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085201</v>
+        <v>0.8660254038085193</v>
       </c>
       <c r="Q4">
-        <v>2.755431778923516E-09</v>
+        <v>2.755258540681665E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972361</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516726</v>
+        <v>0.8660254037516727</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166327</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>3.663658364255062E-09</v>
+        <v>3.663494387175636E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2095,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166327</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>3.663663443652991E-09</v>
+        <v>3.663495355538549E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963279</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952266</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739465</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888188</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610128</v>
+        <v>24.75158797610124</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897119</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043593</v>
+        <v>155.5173957043594</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661915</v>
+        <v>4.133684588661943</v>
       </c>
       <c r="D3">
-        <v>4.133684588661915</v>
+        <v>4.133684588661943</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017929</v>
+        <v>47.73167820017961</v>
       </c>
       <c r="G3">
-        <v>47.73167820017929</v>
+        <v>47.73167820017961</v>
       </c>
       <c r="H3">
-        <v>4.308979418443009E-06</v>
+        <v>11.22828457285203</v>
       </c>
       <c r="I3">
-        <v>0.480396224314769</v>
+        <v>-775.3959920540946</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595239116</v>
       </c>
       <c r="K3">
-        <v>2.416397540698421</v>
+        <v>2.416397540774764</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710815</v>
+        <v>0.1153518594661261</v>
       </c>
       <c r="M3">
-        <v>2.416397540675754</v>
+        <v>2.416397540685221</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841227</v>
+        <v>0.8660254037841225</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841827</v>
+        <v>0.8660254037841819</v>
       </c>
       <c r="Q3">
-        <v>3.075596723398049E-11</v>
+        <v>3.055630245340674E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999608</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597852</v>
+        <v>0.8660254037597853</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085201</v>
+        <v>0.8660254038085193</v>
       </c>
       <c r="Q4">
-        <v>2.755431778923516E-09</v>
+        <v>2.755258540681665E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972361</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516726</v>
+        <v>0.8660254037516727</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166327</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>3.663658364255062E-09</v>
+        <v>3.663494387175636E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2462,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166327</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>3.663663443652991E-09</v>
+        <v>3.663495355538549E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963279</v>
       </c>
     </row>
   </sheetData>
@@ -2587,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618444</v>
+        <v>0.9949806626618446</v>
       </c>
       <c r="O2">
         <v>0.9175617791399001</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021193</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412386</v>
+        <v>27.43727595412385</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105335018</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2613,37 +2613,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.795733578210679</v>
+        <v>1.795733578210684</v>
       </c>
       <c r="D3">
-        <v>1.795733578210679</v>
+        <v>1.795733578210684</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545576</v>
       </c>
       <c r="G3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545576</v>
       </c>
       <c r="H3">
-        <v>4.308979418443009E-06</v>
+        <v>11.22828457285203</v>
       </c>
       <c r="I3">
-        <v>0.480396224314769</v>
+        <v>-775.3959920540946</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595239116</v>
       </c>
       <c r="K3">
-        <v>2.416397540698421</v>
+        <v>2.416397540774764</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710815</v>
+        <v>0.1153518594661261</v>
       </c>
       <c r="M3">
-        <v>2.416397540675754</v>
+        <v>2.416397540685221</v>
       </c>
       <c r="N3">
         <v>1.005693895264115</v>
@@ -2652,13 +2652,13 @@
         <v>0.6348876951823895</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776827</v>
+        <v>0.830735205577682</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536515</v>
+        <v>17.57011779536512</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.9885815758097</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -2711,13 +2711,13 @@
         <v>0.6348876951946467</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979546</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629441</v>
+        <v>17.57011779629438</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.9885815722257</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -2767,19 +2767,19 @@
         <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987323</v>
+        <v>0.6348876951987327</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047118</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660416</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710311</v>
       </c>
       <c r="S5">
-        <v>158.5647675408532</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2826,19 +2826,19 @@
         <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987324</v>
+        <v>0.6348876951987327</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047118</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660417</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710311</v>
       </c>
       <c r="S6">
-        <v>158.5647675408532</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618444</v>
+        <v>0.9949806626618446</v>
       </c>
       <c r="O2">
         <v>0.9175617791399001</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021193</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412386</v>
+        <v>27.43727595412385</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105335018</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2980,37 +2980,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.795733578210679</v>
+        <v>1.795733578210684</v>
       </c>
       <c r="D3">
-        <v>1.795733578210679</v>
+        <v>1.795733578210684</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545576</v>
       </c>
       <c r="G3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545576</v>
       </c>
       <c r="H3">
-        <v>4.308979418443009E-06</v>
+        <v>11.22828457285203</v>
       </c>
       <c r="I3">
-        <v>0.480396224314769</v>
+        <v>-775.3959920540946</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595239116</v>
       </c>
       <c r="K3">
-        <v>2.416397540698421</v>
+        <v>2.416397540774764</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710815</v>
+        <v>0.1153518594661261</v>
       </c>
       <c r="M3">
-        <v>2.416397540675754</v>
+        <v>2.416397540685221</v>
       </c>
       <c r="N3">
         <v>1.005693895264115</v>
@@ -3019,13 +3019,13 @@
         <v>0.6348876951823895</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776827</v>
+        <v>0.830735205577682</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536515</v>
+        <v>17.57011779536512</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.9885815758097</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -3078,13 +3078,13 @@
         <v>0.6348876951946467</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979546</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629441</v>
+        <v>17.57011779629438</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.9885815722257</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -3134,19 +3134,19 @@
         <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987323</v>
+        <v>0.6348876951987327</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047118</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660416</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710311</v>
       </c>
       <c r="S5">
-        <v>158.5647675408532</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3193,19 +3193,19 @@
         <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987324</v>
+        <v>0.6348876951987327</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047118</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660417</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710311</v>
       </c>
       <c r="S6">
-        <v>158.5647675408532</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9665485066551721</v>
+        <v>1.100878262062025</v>
       </c>
       <c r="O2">
-        <v>1.100000023847869</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>0.9557490868191595</v>
+        <v>1.100994888422854</v>
       </c>
       <c r="Q2">
-        <v>35.36603713038324</v>
+        <v>29.96660102211089</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.5566073756945</v>
+        <v>150.0228742626763</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7.486645168178449</v>
+        <v>0.04943454144346372</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>86.44833206350079</v>
+        <v>0.5708209161929898</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.132971011000893E-06</v>
+        <v>5.848132818632553</v>
       </c>
       <c r="I3">
-        <v>0.4683053737015316</v>
+        <v>-775.4127313908984</v>
       </c>
       <c r="J3">
-        <v>0.107731905317842</v>
+        <v>0.1077319052313896</v>
       </c>
       <c r="K3">
-        <v>2.308438694642954</v>
+        <v>2.308438694639264</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132427</v>
+        <v>0.1077319054240355</v>
       </c>
       <c r="M3">
-        <v>2.308438694642836</v>
+        <v>2.308438694642295</v>
       </c>
       <c r="N3">
-        <v>0.5605924249019374</v>
+        <v>1.104788280008983</v>
       </c>
       <c r="O3">
-        <v>1.100000023849217</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P3">
-        <v>0.5532644226333376</v>
+        <v>1.105098048108599</v>
       </c>
       <c r="Q3">
-        <v>81.01279302457185</v>
+        <v>29.83812752491707</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>99.10724870474964</v>
+        <v>150.1338844350884</v>
       </c>
       <c r="T3">
-        <v>7.48664516817845</v>
+        <v>0.04943454144346372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5605924249491953</v>
+        <v>1.104788280008626</v>
       </c>
       <c r="O4">
-        <v>1.100000023849218</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P4">
-        <v>0.5532644225978219</v>
+        <v>1.105098048108505</v>
       </c>
       <c r="Q4">
-        <v>81.01279302147699</v>
+        <v>29.83812752491189</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>99.10724870925041</v>
+        <v>150.1338844350698</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5605924249649478</v>
+        <v>1.104788280008507</v>
       </c>
       <c r="O5">
-        <v>1.100000023849217</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P5">
-        <v>0.5532644225859832</v>
+        <v>1.105098048108474</v>
       </c>
       <c r="Q5">
-        <v>81.0127930204454</v>
+        <v>29.83812752491016</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>99.10724871075064</v>
+        <v>150.1338844350636</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5605924249649478</v>
+        <v>1.104788280008507</v>
       </c>
       <c r="O6">
-        <v>1.100000023849218</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P6">
-        <v>0.5532644225859832</v>
+        <v>1.105098048108474</v>
       </c>
       <c r="Q6">
-        <v>81.01279302044537</v>
+        <v>29.83812752491015</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999581</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>99.10724871075065</v>
+        <v>150.1338844350636</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9665485066551721</v>
+        <v>1.100878262062025</v>
       </c>
       <c r="O2">
-        <v>1.100000023847869</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>0.9557490868191595</v>
+        <v>1.100994888422854</v>
       </c>
       <c r="Q2">
-        <v>35.36603713038324</v>
+        <v>29.96660102211089</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.5566073756945</v>
+        <v>150.0228742626763</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7.486645168178449</v>
+        <v>0.04943454144346372</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>86.44833206350079</v>
+        <v>0.5708209161929898</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.132971011000893E-06</v>
+        <v>5.848132818632553</v>
       </c>
       <c r="I3">
-        <v>0.4683053737015316</v>
+        <v>-775.4127313908984</v>
       </c>
       <c r="J3">
-        <v>0.107731905317842</v>
+        <v>0.1077319052313896</v>
       </c>
       <c r="K3">
-        <v>2.308438694642954</v>
+        <v>2.308438694639264</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132427</v>
+        <v>0.1077319054240355</v>
       </c>
       <c r="M3">
-        <v>2.308438694642836</v>
+        <v>2.308438694642295</v>
       </c>
       <c r="N3">
-        <v>0.5605924249019374</v>
+        <v>1.104788280008983</v>
       </c>
       <c r="O3">
-        <v>1.100000023849217</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P3">
-        <v>0.5532644226333376</v>
+        <v>1.105098048108599</v>
       </c>
       <c r="Q3">
-        <v>81.01279302457185</v>
+        <v>29.83812752491707</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>99.10724870474964</v>
+        <v>150.1338844350884</v>
       </c>
       <c r="T3">
-        <v>7.48664516817845</v>
+        <v>0.04943454144346372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5605924249491953</v>
+        <v>1.104788280008626</v>
       </c>
       <c r="O4">
-        <v>1.100000023849218</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P4">
-        <v>0.5532644225978219</v>
+        <v>1.105098048108505</v>
       </c>
       <c r="Q4">
-        <v>81.01279302147699</v>
+        <v>29.83812752491189</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>99.10724870925041</v>
+        <v>150.1338844350698</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5605924249649478</v>
+        <v>1.104788280008507</v>
       </c>
       <c r="O5">
-        <v>1.100000023849217</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P5">
-        <v>0.5532644225859832</v>
+        <v>1.105098048108474</v>
       </c>
       <c r="Q5">
-        <v>81.0127930204454</v>
+        <v>29.83812752491016</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>99.10724871075064</v>
+        <v>150.1338844350636</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5605924249649478</v>
+        <v>1.104788280008507</v>
       </c>
       <c r="O6">
-        <v>1.100000023849218</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P6">
-        <v>0.5532644225859832</v>
+        <v>1.105098048108474</v>
       </c>
       <c r="Q6">
-        <v>81.01279302044537</v>
+        <v>29.83812752491015</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999581</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>99.10724871075065</v>
+        <v>150.1338844350636</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066741398281163</v>
+        <v>1.100882126777122</v>
       </c>
       <c r="O2">
-        <v>1.100000023843602</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.084485815954257</v>
+        <v>1.101023021396547</v>
       </c>
       <c r="Q2">
-        <v>29.95524886354889</v>
+        <v>29.96502574429536</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4560725421126</v>
+        <v>150.0222594380402</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.512244848903233</v>
+        <v>0.05039764215334454</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.46189941189813</v>
+        <v>0.5819418452751182</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.132971011000893E-06</v>
+        <v>5.848132818632553</v>
       </c>
       <c r="I3">
-        <v>0.4683053737015316</v>
+        <v>-775.4127313908984</v>
       </c>
       <c r="J3">
-        <v>0.107731905317842</v>
+        <v>0.1077319052313896</v>
       </c>
       <c r="K3">
-        <v>2.308438694642954</v>
+        <v>2.308438694639264</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132427</v>
+        <v>0.1077319054240355</v>
       </c>
       <c r="M3">
-        <v>2.308438694642836</v>
+        <v>2.308438694642295</v>
       </c>
       <c r="N3">
-        <v>0.925896510756806</v>
+        <v>1.104817338900106</v>
       </c>
       <c r="O3">
-        <v>1.100000023845418</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.036762419153047</v>
+        <v>1.105248784505558</v>
       </c>
       <c r="Q3">
-        <v>29.15655502162155</v>
+        <v>29.82995412266327</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>141.2520184563645</v>
+        <v>150.1310630361428</v>
       </c>
       <c r="T3">
-        <v>1.512244848903233</v>
+        <v>0.05039764215334454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9258965107634818</v>
+        <v>1.104817338899741</v>
       </c>
       <c r="O4">
-        <v>1.100000023845418</v>
+        <v>1.100000023841823</v>
       </c>
       <c r="P4">
-        <v>1.036762419147067</v>
+        <v>1.105248784505455</v>
       </c>
       <c r="Q4">
-        <v>29.15655502218859</v>
+        <v>29.82995412265837</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>141.2520184568968</v>
+        <v>150.131063036124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9258965107657069</v>
+        <v>1.104817338899619</v>
       </c>
       <c r="O5">
-        <v>1.100000023845418</v>
+        <v>1.100000023841823</v>
       </c>
       <c r="P5">
-        <v>1.036762419145074</v>
+        <v>1.105248784505421</v>
       </c>
       <c r="Q5">
-        <v>29.1565550223776</v>
+        <v>29.82995412265673</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>141.2520184570742</v>
+        <v>150.1310630361177</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9258965107657069</v>
+        <v>1.104817338899619</v>
       </c>
       <c r="O6">
-        <v>1.100000023845418</v>
+        <v>1.100000023841823</v>
       </c>
       <c r="P6">
-        <v>1.036762419145074</v>
+        <v>1.105248784505421</v>
       </c>
       <c r="Q6">
-        <v>29.1565550223776</v>
+        <v>29.82995412265672</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>141.2520184570742</v>
+        <v>150.1310630361177</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066741398281163</v>
+        <v>1.100882126777122</v>
       </c>
       <c r="O2">
-        <v>1.100000023843602</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.084485815954257</v>
+        <v>1.101023021396547</v>
       </c>
       <c r="Q2">
-        <v>29.95524886354889</v>
+        <v>29.96502574429536</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4560725421126</v>
+        <v>150.0222594380402</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.512244848903233</v>
+        <v>0.05039764215334454</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.46189941189813</v>
+        <v>0.5819418452751182</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.132971011000893E-06</v>
+        <v>5.848132818632553</v>
       </c>
       <c r="I3">
-        <v>0.4683053737015316</v>
+        <v>-775.4127313908984</v>
       </c>
       <c r="J3">
-        <v>0.107731905317842</v>
+        <v>0.1077319052313896</v>
       </c>
       <c r="K3">
-        <v>2.308438694642954</v>
+        <v>2.308438694639264</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132427</v>
+        <v>0.1077319054240355</v>
       </c>
       <c r="M3">
-        <v>2.308438694642836</v>
+        <v>2.308438694642295</v>
       </c>
       <c r="N3">
-        <v>0.925896510756806</v>
+        <v>1.104817338900106</v>
       </c>
       <c r="O3">
-        <v>1.100000023845418</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.036762419153047</v>
+        <v>1.105248784505558</v>
       </c>
       <c r="Q3">
-        <v>29.15655502162155</v>
+        <v>29.82995412266327</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>141.2520184563645</v>
+        <v>150.1310630361428</v>
       </c>
       <c r="T3">
-        <v>1.512244848903233</v>
+        <v>0.05039764215334454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9258965107634818</v>
+        <v>1.104817338899741</v>
       </c>
       <c r="O4">
-        <v>1.100000023845418</v>
+        <v>1.100000023841823</v>
       </c>
       <c r="P4">
-        <v>1.036762419147067</v>
+        <v>1.105248784505455</v>
       </c>
       <c r="Q4">
-        <v>29.15655502218859</v>
+        <v>29.82995412265837</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>141.2520184568968</v>
+        <v>150.131063036124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9258965107657069</v>
+        <v>1.104817338899619</v>
       </c>
       <c r="O5">
-        <v>1.100000023845418</v>
+        <v>1.100000023841823</v>
       </c>
       <c r="P5">
-        <v>1.036762419145074</v>
+        <v>1.105248784505421</v>
       </c>
       <c r="Q5">
-        <v>29.1565550223776</v>
+        <v>29.82995412265673</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>141.2520184570742</v>
+        <v>150.1310630361177</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9258965107657069</v>
+        <v>1.104817338899619</v>
       </c>
       <c r="O6">
-        <v>1.100000023845418</v>
+        <v>1.100000023841823</v>
       </c>
       <c r="P6">
-        <v>1.036762419145074</v>
+        <v>1.105248784505421</v>
       </c>
       <c r="Q6">
-        <v>29.1565550223776</v>
+        <v>29.82995412265672</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>141.2520184570742</v>
+        <v>150.1310630361177</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8683734746435431</v>
+        <v>1.000902837118172</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996367</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="P2">
-        <v>0.8577613764721495</v>
+        <v>1.001031145789636</v>
       </c>
       <c r="Q2">
-        <v>35.8974550643885</v>
+        <v>29.96167934630944</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>145.0937764417399</v>
+        <v>150.0255833058611</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.51367574668433</v>
+        <v>0.04495048113971912</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>75.21344891524268</v>
+        <v>0.5190434477244006</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.308979422842159E-06</v>
+        <v>11.22828457285164</v>
       </c>
       <c r="I3">
-        <v>0.4803962243145671</v>
+        <v>-775.3959920540956</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127197</v>
+        <v>0.1153518594266489</v>
       </c>
       <c r="K3">
-        <v>2.416397540675818</v>
+        <v>2.416397540672138</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711481</v>
+        <v>0.115351859481938</v>
       </c>
       <c r="M3">
-        <v>2.416397540675695</v>
+        <v>2.416397540675303</v>
       </c>
       <c r="N3">
-        <v>0.5094238347718292</v>
+        <v>1.004533960979104</v>
       </c>
       <c r="O3">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999479</v>
       </c>
       <c r="P3">
-        <v>0.5027193988243093</v>
+        <v>1.004872350653131</v>
       </c>
       <c r="Q3">
-        <v>81.17491668662105</v>
+        <v>29.82845128742197</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>98.94373642299034</v>
+        <v>150.1379149540143</v>
       </c>
       <c r="T3">
-        <v>6.51367574668433</v>
+        <v>0.04495048113971911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5094238348194301</v>
+        <v>1.004533960978584</v>
       </c>
       <c r="O4">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999483</v>
       </c>
       <c r="P4">
-        <v>0.5027193987968168</v>
+        <v>1.004872350652847</v>
       </c>
       <c r="Q4">
-        <v>81.17491668004712</v>
+        <v>29.82845128742344</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S4">
-        <v>98.94373643098982</v>
+        <v>150.1379149539895</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5094238348352972</v>
+        <v>1.004533960978411</v>
       </c>
       <c r="O5">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P5">
-        <v>0.5027193987876525</v>
+        <v>1.004872350652752</v>
       </c>
       <c r="Q5">
-        <v>81.17491667785583</v>
+        <v>29.82845128742393</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S5">
-        <v>98.94373643365628</v>
+        <v>150.1379149539812</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5094238348352971</v>
+        <v>1.004533960978411</v>
       </c>
       <c r="O6">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999484</v>
       </c>
       <c r="P6">
-        <v>0.5027193987876526</v>
+        <v>1.004872350652752</v>
       </c>
       <c r="Q6">
-        <v>81.17491667785583</v>
+        <v>29.82845128742393</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S6">
-        <v>98.94373643365628</v>
+        <v>150.1379149539812</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8683734746435431</v>
+        <v>1.000902837118172</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996367</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="P2">
-        <v>0.8577613764721495</v>
+        <v>1.001031145789636</v>
       </c>
       <c r="Q2">
-        <v>35.8974550643885</v>
+        <v>29.96167934630944</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>145.0937764417399</v>
+        <v>150.0255833058611</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.51367574668433</v>
+        <v>0.04495048113971912</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>75.21344891524268</v>
+        <v>0.5190434477244006</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.308979422842159E-06</v>
+        <v>11.22828457285164</v>
       </c>
       <c r="I3">
-        <v>0.4803962243145671</v>
+        <v>-775.3959920540956</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127197</v>
+        <v>0.1153518594266489</v>
       </c>
       <c r="K3">
-        <v>2.416397540675818</v>
+        <v>2.416397540672138</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711481</v>
+        <v>0.115351859481938</v>
       </c>
       <c r="M3">
-        <v>2.416397540675695</v>
+        <v>2.416397540675303</v>
       </c>
       <c r="N3">
-        <v>0.5094238347718292</v>
+        <v>1.004533960979104</v>
       </c>
       <c r="O3">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999479</v>
       </c>
       <c r="P3">
-        <v>0.5027193988243093</v>
+        <v>1.004872350653131</v>
       </c>
       <c r="Q3">
-        <v>81.17491668662105</v>
+        <v>29.82845128742197</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>98.94373642299034</v>
+        <v>150.1379149540143</v>
       </c>
       <c r="T3">
-        <v>6.51367574668433</v>
+        <v>0.04495048113971911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5094238348194301</v>
+        <v>1.004533960978584</v>
       </c>
       <c r="O4">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999483</v>
       </c>
       <c r="P4">
-        <v>0.5027193987968168</v>
+        <v>1.004872350652847</v>
       </c>
       <c r="Q4">
-        <v>81.17491668004712</v>
+        <v>29.82845128742344</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S4">
-        <v>98.94373643098982</v>
+        <v>150.1379149539895</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5094238348352972</v>
+        <v>1.004533960978411</v>
       </c>
       <c r="O5">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P5">
-        <v>0.5027193987876525</v>
+        <v>1.004872350652752</v>
       </c>
       <c r="Q5">
-        <v>81.17491667785583</v>
+        <v>29.82845128742393</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S5">
-        <v>98.94373643365628</v>
+        <v>150.1379149539812</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5094238348352971</v>
+        <v>1.004533960978411</v>
       </c>
       <c r="O6">
-        <v>1.000000000006984</v>
+        <v>0.9999999999999484</v>
       </c>
       <c r="P6">
-        <v>0.5027193987876526</v>
+        <v>1.004872350652752</v>
       </c>
       <c r="Q6">
-        <v>81.17491667785583</v>
+        <v>29.82845128742393</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S6">
-        <v>98.94373643365628</v>
+        <v>150.1379149539812</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9658968460419799</v>
+        <v>1.000906390736642</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985029</v>
+        <v>0.9999999999999957</v>
       </c>
       <c r="P2">
-        <v>0.983995764111511</v>
+        <v>1.001060041469002</v>
       </c>
       <c r="Q2">
-        <v>29.95932917897491</v>
+        <v>29.95988586087234</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.2600514536178</v>
+        <v>150.0248609738505</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.364411597794575</v>
+        <v>0.04581985367784769</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.7548680654429</v>
+        <v>0.5290820971026926</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.308979422842159E-06</v>
+        <v>11.22828457285164</v>
       </c>
       <c r="I3">
-        <v>0.4803962243145671</v>
+        <v>-775.3959920540956</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127197</v>
+        <v>0.1153518594266489</v>
       </c>
       <c r="K3">
-        <v>2.416397540675818</v>
+        <v>2.416397540672138</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711481</v>
+        <v>0.115351859481938</v>
       </c>
       <c r="M3">
-        <v>2.416397540675695</v>
+        <v>2.416397540675303</v>
       </c>
       <c r="N3">
-        <v>0.8354771699161131</v>
+        <v>1.004559364067451</v>
       </c>
       <c r="O3">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P3">
-        <v>0.9397939806721676</v>
+        <v>1.00501503511384</v>
       </c>
       <c r="Q3">
-        <v>29.18500206515242</v>
+        <v>29.81987137189949</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>140.9086422845007</v>
+        <v>150.1348366069039</v>
       </c>
       <c r="T3">
-        <v>1.364411597794575</v>
+        <v>0.04581985367784767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8354771699289639</v>
+        <v>1.004559364066922</v>
       </c>
       <c r="O4">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="P4">
-        <v>0.9397939806684008</v>
+        <v>1.005015035113541</v>
       </c>
       <c r="Q4">
-        <v>29.18500206578162</v>
+        <v>29.8198713719016</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999964</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>140.9086422854355</v>
+        <v>150.1348366068789</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8354771699332475</v>
+        <v>1.004559364066746</v>
       </c>
       <c r="O5">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P5">
-        <v>0.9397939806671451</v>
+        <v>1.005015035113441</v>
       </c>
       <c r="Q5">
-        <v>29.18500206599135</v>
+        <v>29.81987137190231</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>140.9086422857471</v>
+        <v>150.1348366068706</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8354771699332475</v>
+        <v>1.004559364066746</v>
       </c>
       <c r="O6">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="P6">
-        <v>0.9397939806671451</v>
+        <v>1.005015035113441</v>
       </c>
       <c r="Q6">
-        <v>29.18500206599135</v>
+        <v>29.8198713719023</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999964</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>140.9086422857471</v>
+        <v>150.1348366068706</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9658968460419799</v>
+        <v>1.000906390736642</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985029</v>
+        <v>0.9999999999999957</v>
       </c>
       <c r="P2">
-        <v>0.983995764111511</v>
+        <v>1.001060041469002</v>
       </c>
       <c r="Q2">
-        <v>29.95932917897491</v>
+        <v>29.95988586087234</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.2600514536178</v>
+        <v>150.0248609738505</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.364411597794575</v>
+        <v>0.04581985367784769</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.7548680654429</v>
+        <v>0.5290820971026926</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.308979422842159E-06</v>
+        <v>11.22828457285164</v>
       </c>
       <c r="I3">
-        <v>0.4803962243145671</v>
+        <v>-775.3959920540956</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127197</v>
+        <v>0.1153518594266489</v>
       </c>
       <c r="K3">
-        <v>2.416397540675818</v>
+        <v>2.416397540672138</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711481</v>
+        <v>0.115351859481938</v>
       </c>
       <c r="M3">
-        <v>2.416397540675695</v>
+        <v>2.416397540675303</v>
       </c>
       <c r="N3">
-        <v>0.8354771699161131</v>
+        <v>1.004559364067451</v>
       </c>
       <c r="O3">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P3">
-        <v>0.9397939806721676</v>
+        <v>1.00501503511384</v>
       </c>
       <c r="Q3">
-        <v>29.18500206515242</v>
+        <v>29.81987137189949</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>140.9086422845007</v>
+        <v>150.1348366069039</v>
       </c>
       <c r="T3">
-        <v>1.364411597794575</v>
+        <v>0.04581985367784767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8354771699289639</v>
+        <v>1.004559364066922</v>
       </c>
       <c r="O4">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="P4">
-        <v>0.9397939806684008</v>
+        <v>1.005015035113541</v>
       </c>
       <c r="Q4">
-        <v>29.18500206578162</v>
+        <v>29.8198713719016</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999964</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>140.9086422854355</v>
+        <v>150.1348366068789</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8354771699332475</v>
+        <v>1.004559364066746</v>
       </c>
       <c r="O5">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P5">
-        <v>0.9397939806671451</v>
+        <v>1.005015035113441</v>
       </c>
       <c r="Q5">
-        <v>29.18500206599135</v>
+        <v>29.81987137190231</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>140.9086422857471</v>
+        <v>150.1348366068706</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8354771699332475</v>
+        <v>1.004559364066746</v>
       </c>
       <c r="O6">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="P6">
-        <v>0.9397939806671451</v>
+        <v>1.005015035113441</v>
       </c>
       <c r="Q6">
-        <v>29.18500206599135</v>
+        <v>29.8198713719023</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999964</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>140.9086422857471</v>
+        <v>150.1348366068706</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9357768423538569</v>
+        <v>1.046826269747261</v>
       </c>
       <c r="O2">
-        <v>0.8909260930571501</v>
+        <v>0.8909260930523716</v>
       </c>
       <c r="P2">
-        <v>0.9373847732912258</v>
+        <v>1.056908281495569</v>
       </c>
       <c r="Q2">
-        <v>29.0231719354435</v>
+        <v>25.18079755871617</v>
       </c>
       <c r="R2">
-        <v>-89.28600430295454</v>
+        <v>-89.28600430314862</v>
       </c>
       <c r="S2">
-        <v>152.2228966461052</v>
+        <v>155.0724322955189</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.505981655641894</v>
+        <v>4.760627949849831</v>
       </c>
       <c r="D3">
-        <v>7.605398585611788</v>
+        <v>4.759293506561482</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>86.67161058834481</v>
+        <v>54.97099656714913</v>
       </c>
       <c r="G3">
-        <v>87.8195784139473</v>
+        <v>54.9555877433142</v>
       </c>
       <c r="H3">
-        <v>2.132971006500099E-06</v>
+        <v>5.848132818634934</v>
       </c>
       <c r="I3">
-        <v>0.468305373701725</v>
+        <v>-775.4127313908978</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064004</v>
+        <v>0.1077319054464883</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694707947</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131844</v>
+        <v>0.1077319054081953</v>
       </c>
       <c r="M3">
-        <v>2.308438694642892</v>
+        <v>2.308438694652461</v>
       </c>
       <c r="N3">
-        <v>0.2748032888721912</v>
+        <v>0.954047502335709</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.27480328888865</v>
+        <v>0.954047502336197</v>
       </c>
       <c r="Q3">
-        <v>1.90126982615837</v>
+        <v>-0.004630042556792971</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-178.0987301749898</v>
+        <v>179.9953699574438</v>
       </c>
       <c r="T3">
-        <v>11.73607241363476</v>
+        <v>0.02460677600966958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2748032888768116</v>
+        <v>0.9540475023088709</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2748032889452183</v>
+        <v>0.9540475023629055</v>
       </c>
       <c r="Q4">
-        <v>1.90126983785129</v>
+        <v>-0.004630041143885642</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.0987301735008</v>
+        <v>179.995369956023</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2748032888783516</v>
+        <v>0.9540475022999251</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2748032889640742</v>
+        <v>0.9540475023718084</v>
       </c>
       <c r="Q5">
-        <v>1.901269841748927</v>
+        <v>-0.004630040672915538</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-178.0987301730044</v>
+        <v>179.9953699555494</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2748032888783518</v>
+        <v>0.9540475022999251</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2748032889640743</v>
+        <v>0.9540475023718085</v>
       </c>
       <c r="Q6">
-        <v>1.901269841748913</v>
+        <v>-0.004630040672919116</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-178.0987301730044</v>
+        <v>179.9953699555494</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9357768423538569</v>
+        <v>1.046826269747261</v>
       </c>
       <c r="O2">
-        <v>0.8909260930571501</v>
+        <v>0.8909260930523716</v>
       </c>
       <c r="P2">
-        <v>0.9373847732912258</v>
+        <v>1.056908281495569</v>
       </c>
       <c r="Q2">
-        <v>29.0231719354435</v>
+        <v>25.18079755871617</v>
       </c>
       <c r="R2">
-        <v>-89.28600430295454</v>
+        <v>-89.28600430314862</v>
       </c>
       <c r="S2">
-        <v>152.2228966461052</v>
+        <v>155.0724322955189</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.505981655641894</v>
+        <v>4.760627949849831</v>
       </c>
       <c r="D3">
-        <v>7.605398585611788</v>
+        <v>4.759293506561482</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>86.67161058834481</v>
+        <v>54.97099656714913</v>
       </c>
       <c r="G3">
-        <v>87.8195784139473</v>
+        <v>54.9555877433142</v>
       </c>
       <c r="H3">
-        <v>2.132971006500099E-06</v>
+        <v>5.848132818634934</v>
       </c>
       <c r="I3">
-        <v>0.468305373701725</v>
+        <v>-775.4127313908978</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064004</v>
+        <v>0.1077319054464883</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694707947</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131844</v>
+        <v>0.1077319054081953</v>
       </c>
       <c r="M3">
-        <v>2.308438694642892</v>
+        <v>2.308438694652461</v>
       </c>
       <c r="N3">
-        <v>0.2748032888721912</v>
+        <v>0.954047502335709</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.27480328888865</v>
+        <v>0.954047502336197</v>
       </c>
       <c r="Q3">
-        <v>1.90126982615837</v>
+        <v>-0.004630042556792971</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-178.0987301749898</v>
+        <v>179.9953699574438</v>
       </c>
       <c r="T3">
-        <v>11.73607241363476</v>
+        <v>0.02460677600966958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2748032888768116</v>
+        <v>0.9540475023088709</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2748032889452183</v>
+        <v>0.9540475023629055</v>
       </c>
       <c r="Q4">
-        <v>1.90126983785129</v>
+        <v>-0.004630041143885642</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.0987301735008</v>
+        <v>179.995369956023</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2748032888783516</v>
+        <v>0.9540475022999251</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2748032889640742</v>
+        <v>0.9540475023718084</v>
       </c>
       <c r="Q5">
-        <v>1.901269841748927</v>
+        <v>-0.004630040672915538</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-178.0987301730044</v>
+        <v>179.9953699555494</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2748032888783518</v>
+        <v>0.9540475022999251</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2748032889640743</v>
+        <v>0.9540475023718085</v>
       </c>
       <c r="Q6">
-        <v>1.901269841748913</v>
+        <v>-0.004630040672919116</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-178.0987301730044</v>
+        <v>179.9953699555494</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082357021837328</v>
+        <v>1.100197150521052</v>
       </c>
       <c r="O2">
-        <v>1.052967690033993</v>
+        <v>1.052967690033151</v>
       </c>
       <c r="P2">
-        <v>1.068899300075735</v>
+        <v>1.077019576084975</v>
       </c>
       <c r="Q2">
-        <v>28.49925039132566</v>
+        <v>28.57802927926546</v>
       </c>
       <c r="R2">
-        <v>-91.44286082237872</v>
+        <v>-91.44286082238196</v>
       </c>
       <c r="S2">
-        <v>149.8922139290694</v>
+        <v>150.7442553859134</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.526666615553254</v>
+        <v>1.241015299869655</v>
       </c>
       <c r="D3">
-        <v>1.416706836785395</v>
+        <v>1.226430042544274</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.62842762904972</v>
+        <v>14.33001034896379</v>
       </c>
       <c r="G3">
-        <v>16.35872147161663</v>
+        <v>14.16159430410362</v>
       </c>
       <c r="H3">
-        <v>2.132971006500099E-06</v>
+        <v>5.848132818634934</v>
       </c>
       <c r="I3">
-        <v>0.468305373701725</v>
+        <v>-775.4127313908978</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064004</v>
+        <v>0.1077319054464883</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694707947</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131844</v>
+        <v>0.1077319054081953</v>
       </c>
       <c r="M3">
-        <v>2.308438694642892</v>
+        <v>2.308438694652461</v>
       </c>
       <c r="N3">
-        <v>1.024998895708735</v>
+        <v>1.116087067458295</v>
       </c>
       <c r="O3">
-        <v>0.8723446855809895</v>
+        <v>0.8723446855796159</v>
       </c>
       <c r="P3">
-        <v>0.9376302810217509</v>
+        <v>0.9773968900674151</v>
       </c>
       <c r="Q3">
-        <v>21.37651986108362</v>
+        <v>22.62665440023465</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396028</v>
+        <v>-100.0510163396292</v>
       </c>
       <c r="S3">
-        <v>148.8263147219714</v>
+        <v>153.9277344113946</v>
       </c>
       <c r="T3">
-        <v>1.608619417134568</v>
+        <v>0.02484439274342857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.024998895703392</v>
+        <v>1.116087067450343</v>
       </c>
       <c r="O4">
-        <v>0.8723446855806872</v>
+        <v>0.8723446855793134</v>
       </c>
       <c r="P4">
-        <v>0.9376302810276099</v>
+        <v>0.9773968900762314</v>
       </c>
       <c r="Q4">
-        <v>21.37651986164937</v>
+        <v>22.62665440048262</v>
       </c>
       <c r="R4">
-        <v>-100.051016338388</v>
+        <v>-100.0510163384145</v>
       </c>
       <c r="S4">
-        <v>148.8263147225127</v>
+        <v>153.9277344115476</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.02499889570161</v>
+        <v>1.116087067447693</v>
       </c>
       <c r="O5">
-        <v>0.8723446855805864</v>
+        <v>0.8723446855792125</v>
       </c>
       <c r="P5">
-        <v>0.9376302810295628</v>
+        <v>0.9773968900791703</v>
       </c>
       <c r="Q5">
-        <v>21.37651986183795</v>
+        <v>22.62665440056528</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379831</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S5">
-        <v>148.8263147226932</v>
+        <v>153.9277344115986</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.02499889570161</v>
+        <v>1.116087067447693</v>
       </c>
       <c r="O6">
-        <v>0.8723446855805863</v>
+        <v>0.8723446855792125</v>
       </c>
       <c r="P6">
-        <v>0.9376302810295629</v>
+        <v>0.9773968900791703</v>
       </c>
       <c r="Q6">
-        <v>21.37651986183795</v>
+        <v>22.62665440056528</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379831</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S6">
-        <v>148.8263147226932</v>
+        <v>153.9277344115986</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082357021837328</v>
+        <v>1.100197150521052</v>
       </c>
       <c r="O2">
-        <v>1.052967690033993</v>
+        <v>1.052967690033151</v>
       </c>
       <c r="P2">
-        <v>1.068899300075735</v>
+        <v>1.077019576084975</v>
       </c>
       <c r="Q2">
-        <v>28.49925039132566</v>
+        <v>28.57802927926546</v>
       </c>
       <c r="R2">
-        <v>-91.44286082237872</v>
+        <v>-91.44286082238196</v>
       </c>
       <c r="S2">
-        <v>149.8922139290694</v>
+        <v>150.7442553859134</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.526666615553254</v>
+        <v>1.241015299869655</v>
       </c>
       <c r="D3">
-        <v>1.416706836785395</v>
+        <v>1.226430042544274</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.62842762904972</v>
+        <v>14.33001034896379</v>
       </c>
       <c r="G3">
-        <v>16.35872147161663</v>
+        <v>14.16159430410362</v>
       </c>
       <c r="H3">
-        <v>2.132971006500099E-06</v>
+        <v>5.848132818634934</v>
       </c>
       <c r="I3">
-        <v>0.468305373701725</v>
+        <v>-775.4127313908978</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064004</v>
+        <v>0.1077319054464883</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694707947</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131844</v>
+        <v>0.1077319054081953</v>
       </c>
       <c r="M3">
-        <v>2.308438694642892</v>
+        <v>2.308438694652461</v>
       </c>
       <c r="N3">
-        <v>1.024998895708735</v>
+        <v>1.116087067458295</v>
       </c>
       <c r="O3">
-        <v>0.8723446855809895</v>
+        <v>0.8723446855796159</v>
       </c>
       <c r="P3">
-        <v>0.9376302810217509</v>
+        <v>0.9773968900674151</v>
       </c>
       <c r="Q3">
-        <v>21.37651986108362</v>
+        <v>22.62665440023465</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396028</v>
+        <v>-100.0510163396292</v>
       </c>
       <c r="S3">
-        <v>148.8263147219714</v>
+        <v>153.9277344113946</v>
       </c>
       <c r="T3">
-        <v>1.608619417134568</v>
+        <v>0.02484439274342857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.024998895703392</v>
+        <v>1.116087067450343</v>
       </c>
       <c r="O4">
-        <v>0.8723446855806872</v>
+        <v>0.8723446855793134</v>
       </c>
       <c r="P4">
-        <v>0.9376302810276099</v>
+        <v>0.9773968900762314</v>
       </c>
       <c r="Q4">
-        <v>21.37651986164937</v>
+        <v>22.62665440048262</v>
       </c>
       <c r="R4">
-        <v>-100.051016338388</v>
+        <v>-100.0510163384145</v>
       </c>
       <c r="S4">
-        <v>148.8263147225127</v>
+        <v>153.9277344115476</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.02499889570161</v>
+        <v>1.116087067447693</v>
       </c>
       <c r="O5">
-        <v>0.8723446855805864</v>
+        <v>0.8723446855792125</v>
       </c>
       <c r="P5">
-        <v>0.9376302810295628</v>
+        <v>0.9773968900791703</v>
       </c>
       <c r="Q5">
-        <v>21.37651986183795</v>
+        <v>22.62665440056528</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379831</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S5">
-        <v>148.8263147226932</v>
+        <v>153.9277344115986</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.02499889570161</v>
+        <v>1.116087067447693</v>
       </c>
       <c r="O6">
-        <v>0.8723446855805863</v>
+        <v>0.8723446855792125</v>
       </c>
       <c r="P6">
-        <v>0.9376302810295629</v>
+        <v>0.9773968900791703</v>
       </c>
       <c r="Q6">
-        <v>21.37651986183795</v>
+        <v>22.62665440056528</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379831</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S6">
-        <v>148.8263147226932</v>
+        <v>153.9277344115986</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8373521151204915</v>
+        <v>0.9479621541380235</v>
       </c>
       <c r="O2">
-        <v>0.7936674232737136</v>
+        <v>0.7936674232739479</v>
       </c>
       <c r="P2">
-        <v>0.8388631925305037</v>
+        <v>0.9577495704823814</v>
       </c>
       <c r="Q2">
-        <v>28.93988049404453</v>
+        <v>24.74280829937992</v>
       </c>
       <c r="R2">
-        <v>-89.22492623906217</v>
+        <v>-89.22492623897008</v>
       </c>
       <c r="S2">
-        <v>152.4181000898802</v>
+        <v>155.5225474523752</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.541069236575424</v>
+        <v>4.134395789109751</v>
       </c>
       <c r="D3">
-        <v>6.62830314859159</v>
+        <v>4.133003535812444</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>75.52976169049603</v>
+        <v>47.73989043557941</v>
       </c>
       <c r="G3">
-        <v>76.53705214219598</v>
+        <v>47.72381407925979</v>
       </c>
       <c r="H3">
-        <v>4.308979418443009E-06</v>
+        <v>11.22828457285203</v>
       </c>
       <c r="I3">
-        <v>0.480396224314769</v>
+        <v>-775.3959920540946</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595239116</v>
       </c>
       <c r="K3">
-        <v>2.416397540698421</v>
+        <v>2.416397540774764</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710815</v>
+        <v>0.1153518594661261</v>
       </c>
       <c r="M3">
-        <v>2.416397540675754</v>
+        <v>2.416397540685221</v>
       </c>
       <c r="N3">
-        <v>0.2462359706961721</v>
+        <v>0.8673757010897778</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2462359706898993</v>
+        <v>0.8673757010899269</v>
       </c>
       <c r="Q3">
-        <v>1.955875720579166</v>
+        <v>-0.005562088451949757</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-178.0441242809306</v>
+        <v>179.9944379114789</v>
       </c>
       <c r="T3">
-        <v>10.25136994066997</v>
+        <v>0.02237011240326438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2462359707257023</v>
+        <v>0.8673757010653214</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2462359707652652</v>
+        <v>0.8673757011141531</v>
       </c>
       <c r="Q4">
-        <v>1.95587573679724</v>
+        <v>-0.005562085735525972</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.0441242842538</v>
+        <v>179.9944379087547</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2462359707355456</v>
+        <v>0.8673757010571691</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.246235970790387</v>
+        <v>0.8673757011222285</v>
       </c>
       <c r="Q5">
-        <v>1.955875742203277</v>
+        <v>-0.00556208483005271</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-178.0441242853615</v>
+        <v>179.9944379078466</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2462359707355455</v>
+        <v>0.867375701057169</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2462359707903871</v>
+        <v>0.8673757011222282</v>
       </c>
       <c r="Q6">
-        <v>1.955875742203277</v>
+        <v>-0.005562084830055556</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-178.0441242853615</v>
+        <v>179.9944379078466</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8373521151204915</v>
+        <v>0.9479621541380235</v>
       </c>
       <c r="O2">
-        <v>0.7936674232737136</v>
+        <v>0.7936674232739479</v>
       </c>
       <c r="P2">
-        <v>0.8388631925305037</v>
+        <v>0.9577495704823814</v>
       </c>
       <c r="Q2">
-        <v>28.93988049404453</v>
+        <v>24.74280829937992</v>
       </c>
       <c r="R2">
-        <v>-89.22492623906217</v>
+        <v>-89.22492623897008</v>
       </c>
       <c r="S2">
-        <v>152.4181000898802</v>
+        <v>155.5225474523752</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.541069236575424</v>
+        <v>4.134395789109751</v>
       </c>
       <c r="D3">
-        <v>6.62830314859159</v>
+        <v>4.133003535812444</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>75.52976169049603</v>
+        <v>47.73989043557941</v>
       </c>
       <c r="G3">
-        <v>76.53705214219598</v>
+        <v>47.72381407925979</v>
       </c>
       <c r="H3">
-        <v>4.308979418443009E-06</v>
+        <v>11.22828457285203</v>
       </c>
       <c r="I3">
-        <v>0.480396224314769</v>
+        <v>-775.3959920540946</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595239116</v>
       </c>
       <c r="K3">
-        <v>2.416397540698421</v>
+        <v>2.416397540774764</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710815</v>
+        <v>0.1153518594661261</v>
       </c>
       <c r="M3">
-        <v>2.416397540675754</v>
+        <v>2.416397540685221</v>
       </c>
       <c r="N3">
-        <v>0.2462359706961721</v>
+        <v>0.8673757010897778</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2462359706898993</v>
+        <v>0.8673757010899269</v>
       </c>
       <c r="Q3">
-        <v>1.955875720579166</v>
+        <v>-0.005562088451949757</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-178.0441242809306</v>
+        <v>179.9944379114789</v>
       </c>
       <c r="T3">
-        <v>10.25136994066997</v>
+        <v>0.02237011240326438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2462359707257023</v>
+        <v>0.8673757010653214</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2462359707652652</v>
+        <v>0.8673757011141531</v>
       </c>
       <c r="Q4">
-        <v>1.95587573679724</v>
+        <v>-0.005562085735525972</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.0441242842538</v>
+        <v>179.9944379087547</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2462359707355456</v>
+        <v>0.8673757010571691</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.246235970790387</v>
+        <v>0.8673757011222285</v>
       </c>
       <c r="Q5">
-        <v>1.955875742203277</v>
+        <v>-0.00556208483005271</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-178.0441242853615</v>
+        <v>179.9944379078466</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2462359707355455</v>
+        <v>0.867375701057169</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2462359707903871</v>
+        <v>0.8673757011222282</v>
       </c>
       <c r="Q6">
-        <v>1.955875742203277</v>
+        <v>-0.005562084830055556</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-178.0441242853615</v>
+        <v>179.9944379078466</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9817269290283843</v>
+        <v>1.000074698779074</v>
       </c>
       <c r="O2">
-        <v>0.9517844802521029</v>
+        <v>0.9517844802529014</v>
       </c>
       <c r="P2">
-        <v>0.968190287293859</v>
+        <v>0.9766104730693661</v>
       </c>
       <c r="Q2">
-        <v>28.31155014411827</v>
+        <v>28.40056875190735</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281389</v>
+        <v>-91.61401138281126</v>
       </c>
       <c r="S2">
-        <v>149.8829226557382</v>
+        <v>150.8477377585359</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.377764722514245</v>
+        <v>1.116623141631402</v>
       </c>
       <c r="D3">
-        <v>1.274927760211</v>
+        <v>1.10334902693418</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.90905666847139</v>
+        <v>12.89365342808511</v>
       </c>
       <c r="G3">
-        <v>14.72159771110295</v>
+        <v>12.74037715421121</v>
       </c>
       <c r="H3">
-        <v>4.308979418443009E-06</v>
+        <v>11.22828457285203</v>
       </c>
       <c r="I3">
-        <v>0.480396224314769</v>
+        <v>-775.3959920540946</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595239116</v>
       </c>
       <c r="K3">
-        <v>2.416397540698421</v>
+        <v>2.416397540774764</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710815</v>
+        <v>0.1153518594661261</v>
       </c>
       <c r="M3">
-        <v>2.416397540675754</v>
+        <v>2.416397540685221</v>
       </c>
       <c r="N3">
-        <v>0.9282298830082806</v>
+        <v>1.014509519196098</v>
       </c>
       <c r="O3">
-        <v>0.7848521014142142</v>
+        <v>0.7848521014138752</v>
       </c>
       <c r="P3">
-        <v>0.8469722590962648</v>
+        <v>0.8851496021302244</v>
       </c>
       <c r="Q3">
-        <v>21.04638680025844</v>
+        <v>22.35574019313832</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786953</v>
+        <v>-100.4045966786921</v>
       </c>
       <c r="S3">
-        <v>148.8124200026778</v>
+        <v>154.1405063702097</v>
       </c>
       <c r="T3">
-        <v>1.455819453096692</v>
+        <v>0.02258456581974177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9282298830056129</v>
+        <v>1.014509519187696</v>
       </c>
       <c r="O4">
-        <v>0.7848521014217904</v>
+        <v>0.7848521014214516</v>
       </c>
       <c r="P4">
-        <v>0.8469722591078429</v>
+        <v>0.8851496021429838</v>
       </c>
       <c r="Q4">
-        <v>21.04638680122873</v>
+        <v>22.35574019369279</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769033</v>
+        <v>-100.4045966769001</v>
       </c>
       <c r="S4">
-        <v>148.8124200032965</v>
+        <v>154.1405063701784</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9282298830047236</v>
+        <v>1.014509519184895</v>
       </c>
       <c r="O5">
-        <v>0.7848521014243157</v>
+        <v>0.7848521014239769</v>
       </c>
       <c r="P5">
-        <v>0.8469722591117023</v>
+        <v>0.8851496021472367</v>
       </c>
       <c r="Q5">
-        <v>21.04638680155217</v>
+        <v>22.35574019387763</v>
       </c>
       <c r="R5">
-        <v>-100.404596676306</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>148.8124200035027</v>
+        <v>154.140506370168</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9282298830047236</v>
+        <v>1.014509519184895</v>
       </c>
       <c r="O6">
-        <v>0.7848521014243157</v>
+        <v>0.7848521014239769</v>
       </c>
       <c r="P6">
-        <v>0.8469722591117023</v>
+        <v>0.8851496021472367</v>
       </c>
       <c r="Q6">
-        <v>21.04638680155217</v>
+        <v>22.35574019387763</v>
       </c>
       <c r="R6">
-        <v>-100.404596676306</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>148.8124200035027</v>
+        <v>154.140506370168</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9817269290283843</v>
+        <v>1.000074698779074</v>
       </c>
       <c r="O2">
-        <v>0.9517844802521029</v>
+        <v>0.9517844802529014</v>
       </c>
       <c r="P2">
-        <v>0.968190287293859</v>
+        <v>0.9766104730693661</v>
       </c>
       <c r="Q2">
-        <v>28.31155014411827</v>
+        <v>28.40056875190735</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281389</v>
+        <v>-91.61401138281126</v>
       </c>
       <c r="S2">
-        <v>149.8829226557382</v>
+        <v>150.8477377585359</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.377764722514245</v>
+        <v>1.116623141631402</v>
       </c>
       <c r="D3">
-        <v>1.274927760211</v>
+        <v>1.10334902693418</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.90905666847139</v>
+        <v>12.89365342808511</v>
       </c>
       <c r="G3">
-        <v>14.72159771110295</v>
+        <v>12.74037715421121</v>
       </c>
       <c r="H3">
-        <v>4.308979418443009E-06</v>
+        <v>11.22828457285203</v>
       </c>
       <c r="I3">
-        <v>0.480396224314769</v>
+        <v>-775.3959920540946</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595239116</v>
       </c>
       <c r="K3">
-        <v>2.416397540698421</v>
+        <v>2.416397540774764</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710815</v>
+        <v>0.1153518594661261</v>
       </c>
       <c r="M3">
-        <v>2.416397540675754</v>
+        <v>2.416397540685221</v>
       </c>
       <c r="N3">
-        <v>0.9282298830082806</v>
+        <v>1.014509519196098</v>
       </c>
       <c r="O3">
-        <v>0.7848521014142142</v>
+        <v>0.7848521014138752</v>
       </c>
       <c r="P3">
-        <v>0.8469722590962648</v>
+        <v>0.8851496021302244</v>
       </c>
       <c r="Q3">
-        <v>21.04638680025844</v>
+        <v>22.35574019313832</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786953</v>
+        <v>-100.4045966786921</v>
       </c>
       <c r="S3">
-        <v>148.8124200026778</v>
+        <v>154.1405063702097</v>
       </c>
       <c r="T3">
-        <v>1.455819453096692</v>
+        <v>0.02258456581974177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9282298830056129</v>
+        <v>1.014509519187696</v>
       </c>
       <c r="O4">
-        <v>0.7848521014217904</v>
+        <v>0.7848521014214516</v>
       </c>
       <c r="P4">
-        <v>0.8469722591078429</v>
+        <v>0.8851496021429838</v>
       </c>
       <c r="Q4">
-        <v>21.04638680122873</v>
+        <v>22.35574019369279</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769033</v>
+        <v>-100.4045966769001</v>
       </c>
       <c r="S4">
-        <v>148.8124200032965</v>
+        <v>154.1405063701784</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9282298830047236</v>
+        <v>1.014509519184895</v>
       </c>
       <c r="O5">
-        <v>0.7848521014243157</v>
+        <v>0.7848521014239769</v>
       </c>
       <c r="P5">
-        <v>0.8469722591117023</v>
+        <v>0.8851496021472367</v>
       </c>
       <c r="Q5">
-        <v>21.04638680155217</v>
+        <v>22.35574019387763</v>
       </c>
       <c r="R5">
-        <v>-100.404596676306</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>148.8124200035027</v>
+        <v>154.140506370168</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9282298830047236</v>
+        <v>1.014509519184895</v>
       </c>
       <c r="O6">
-        <v>0.7848521014243157</v>
+        <v>0.7848521014239769</v>
       </c>
       <c r="P6">
-        <v>0.8469722591117023</v>
+        <v>0.8851496021472367</v>
       </c>
       <c r="Q6">
-        <v>21.04638680155217</v>
+        <v>22.35574019387763</v>
       </c>
       <c r="R6">
-        <v>-100.404596676306</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>148.8124200035027</v>
+        <v>154.140506370168</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,13 +10541,13 @@
         <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.890926093052382</v>
+        <v>0.8909260930523811</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033978</v>
+        <v>25.18850204033977</v>
       </c>
       <c r="R2">
         <v>-89.28600430314906</v>
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248872</v>
+        <v>4.759944874248895</v>
       </c>
       <c r="D3">
-        <v>4.759944874248872</v>
+        <v>4.759944874248895</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950732</v>
+        <v>54.96310908950758</v>
       </c>
       <c r="G3">
-        <v>54.96310908950732</v>
+        <v>54.96310908950758</v>
       </c>
       <c r="H3">
-        <v>2.132971006500099E-06</v>
+        <v>5.848132818634934</v>
       </c>
       <c r="I3">
-        <v>0.468305373701725</v>
+        <v>-775.4127313908978</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064004</v>
+        <v>0.1077319054464883</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694707947</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131844</v>
+        <v>0.1077319054081953</v>
       </c>
       <c r="M3">
-        <v>2.308438694642892</v>
+        <v>2.308438694652461</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020826</v>
+        <v>0.9526279648020818</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.95262796480252</v>
+        <v>0.9526279648025194</v>
       </c>
       <c r="Q3">
-        <v>-4.063775629709184E-12</v>
+        <v>-4.175278192772507E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.99999999999</v>
+        <v>-179.9999999999898</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753112</v>
+        <v>0.9526279647753105</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292915</v>
+        <v>0.9526279648292909</v>
       </c>
       <c r="Q4">
-        <v>1.415044592031669E-09</v>
+        <v>1.414938455749707E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985763</v>
+        <v>179.9999999985765</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663872</v>
+        <v>0.9526279647663868</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382153</v>
+        <v>0.9526279648382148</v>
       </c>
       <c r="Q5">
-        <v>1.888075960424472E-09</v>
+        <v>1.887969944036335E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663872</v>
+        <v>0.9526279647663868</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382153</v>
+        <v>0.9526279648382148</v>
       </c>
       <c r="Q6">
-        <v>1.888085518975507E-09</v>
+        <v>1.887965758623757E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
   </sheetData>
